--- a/data/trans_dic/P70C3_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70C3_R_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.06275836618959875</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.06881220886817467</v>
+        <v>0.06881220886817468</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.06535203849404812</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03955538206073012</v>
+        <v>0.04097539515243252</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04095959590467108</v>
+        <v>0.0438051173500535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04573468090180765</v>
+        <v>0.04658424615710281</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1037955087501115</v>
+        <v>0.1046593119585544</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1050336008221083</v>
+        <v>0.1143720622905567</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09373731164492341</v>
+        <v>0.09080651193068143</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04990311445958955</v>
+        <v>0.04974819354454802</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03238261789239537</v>
+        <v>0.03326114550355703</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04574176570417712</v>
+        <v>0.04748504514445474</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09831195225999216</v>
+        <v>0.09524502821349501</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06610948925000899</v>
+        <v>0.06717410676993577</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07801114610389825</v>
+        <v>0.07942002937338929</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.02329728963183389</v>
+        <v>0.02329728963183388</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.04154622281955193</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01067227187445255</v>
+        <v>0.009048962038462999</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02649671140060102</v>
+        <v>0.02444041374656991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02079448896313221</v>
+        <v>0.02098618319887646</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04705473362397995</v>
+        <v>0.04658123291113648</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06440922200885731</v>
+        <v>0.06230165870158143</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04829092387703516</v>
+        <v>0.04893521709073168</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03496204935781665</v>
+        <v>0.0368513210767939</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04667422415606844</v>
+        <v>0.04624815358908351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04502383129608525</v>
+        <v>0.04491306420194967</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07612526127412005</v>
+        <v>0.07706102460163965</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08691730687436472</v>
+        <v>0.08434109662240494</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07434220484959657</v>
+        <v>0.07539817058753395</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.0539594493052482</v>
+        <v>0.05395944930524819</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.05460620019918149</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04359302875320618</v>
+        <v>0.043044528259508</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04581276039278368</v>
+        <v>0.04472379500843863</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04678427114854539</v>
+        <v>0.04689029379888909</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06818646381806662</v>
+        <v>0.06651130019046714</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06686642365966716</v>
+        <v>0.06678917320741611</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06377600657495069</v>
+        <v>0.06199950347110883</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14515</v>
+        <v>15036</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11266</v>
+        <v>12049</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29362</v>
+        <v>29907</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>38088</v>
+        <v>38405</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28890</v>
+        <v>31459</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>60180</v>
+        <v>58298</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>31012</v>
+        <v>30916</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14406</v>
+        <v>14797</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>48775</v>
+        <v>50633</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61095</v>
+        <v>59189</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29410</v>
+        <v>29883</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>83184</v>
+        <v>84686</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4444</v>
+        <v>3768</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8828</v>
+        <v>8143</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15587</v>
+        <v>15731</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19594</v>
+        <v>19397</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21459</v>
+        <v>20757</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36198</v>
+        <v>36681</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17845</v>
+        <v>18809</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20671</v>
+        <v>20482</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>42921</v>
+        <v>42815</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38855</v>
+        <v>39333</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38494</v>
+        <v>37353</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>70869</v>
+        <v>71876</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>83490</v>
+        <v>82440</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>68534</v>
+        <v>66905</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>159590</v>
+        <v>159951</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>130592</v>
+        <v>127384</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>100030</v>
+        <v>99914</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>217552</v>
+        <v>211492</v>
       </c>
     </row>
     <row r="24">
